--- a/ph_product_sprint_backlog_0.03.xlsx
+++ b/ph_product_sprint_backlog_0.03.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="255" windowWidth="15180" windowHeight="8355" tabRatio="522" activeTab="1"/>
+    <workbookView xWindow="-180" yWindow="255" windowWidth="15180" windowHeight="8355" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="8" r:id="rId1"/>
     <sheet name="Release Plan" sheetId="7" r:id="rId2"/>
     <sheet name="PB Burndown" sheetId="20" r:id="rId3"/>
     <sheet name="Sp1" sheetId="19" r:id="rId4"/>
-    <sheet name="Sprint Sheet Template" sheetId="16" r:id="rId5"/>
-    <sheet name="Task Slips" sheetId="21" r:id="rId6"/>
+    <sheet name="Sp2" sheetId="22" r:id="rId5"/>
+    <sheet name="Sprint Sheet Template" sheetId="16" r:id="rId6"/>
+    <sheet name="Task Slips" sheetId="21" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="AverageSpeedLastEight">OFFSET('PB Burndown'!$P$27,1,0,'PB Burndown'!$G$3,1)</definedName>
@@ -21,10 +22,12 @@
     <definedName name="ColBottomCurrentScope">OFFSET('PB Burndown'!$I$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="ColTopRemainingWork">OFFSET('PB Burndown'!$F$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="DoneDays" localSheetId="3">'Sp1'!$D$11</definedName>
-    <definedName name="DoneDays" localSheetId="4">'Sprint Sheet Template'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="4">'Sp2'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="5">'Sprint Sheet Template'!$D$11</definedName>
     <definedName name="DoneDays">#REF!</definedName>
     <definedName name="ImplementationDays" localSheetId="3">'Sp1'!$B$9</definedName>
-    <definedName name="ImplementationDays" localSheetId="4">'Sprint Sheet Template'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="4">'Sp2'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="5">'Sprint Sheet Template'!$B$9</definedName>
     <definedName name="ImplementationDays">#REF!</definedName>
     <definedName name="LastEight">IF('PB Burndown'!$G$4&gt;8,OFFSET('PB Burndown'!$D$27,'PB Burndown'!$G$4-7,0,8,1),OFFSET('PB Burndown'!$D$27,1,0,'PB Burndown'!$G$4-1,1))</definedName>
     <definedName name="LastPlanned">IF(OFFSET('PB Burndown'!$B$27,1,0,1,1)="",1,OFFSET('PB Burndown'!$B$27,'PB Burndown'!$G$3,0,1,1))</definedName>
@@ -33,29 +36,36 @@
     <definedName name="PBTrend">OFFSET('PB Burndown'!$M$27,1,0,'PB Burndown'!$G$9,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET('PB Burndown'!$C$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A:$G</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Task Slips'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Task Slips'!#REF!</definedName>
     <definedName name="ProductBacklog">'Product Backlog'!$A$4:$G$163</definedName>
     <definedName name="RealizedSpeed">OFFSET('PB Burndown'!$D$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="RealValues" localSheetId="3">OFFSET('Sp1'!$F$10,0,0,1,'Sp1'!DoneDays)</definedName>
-    <definedName name="RealValues" localSheetId="4">OFFSET('Sprint Sheet Template'!$F$10,0,0,1,'Sprint Sheet Template'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="4">OFFSET('Sp2'!$F$10,0,0,1,'Sp2'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="5">OFFSET('Sprint Sheet Template'!$F$10,0,0,1,'Sprint Sheet Template'!DoneDays)</definedName>
     <definedName name="Sprint">'Product Backlog'!$E$5:$E$163</definedName>
     <definedName name="SprintCount">'PB Burndown'!$G$3</definedName>
     <definedName name="SprintsInTrend">'PB Burndown'!$G$6</definedName>
     <definedName name="SprintTasks" localSheetId="3">'Sp1'!$A$14:$AD$63</definedName>
+    <definedName name="SprintTasks" localSheetId="4">'Sp2'!$A$14:$AD$63</definedName>
     <definedName name="SprintTasks">'Sprint Sheet Template'!$A$14:$AD$63</definedName>
     <definedName name="Status">'Product Backlog'!$C$5:$C$163</definedName>
     <definedName name="StoryName">'Product Backlog'!$B$5:$B$163</definedName>
     <definedName name="TaskRows" localSheetId="3">'Sp1'!$B$11</definedName>
-    <definedName name="TaskRows" localSheetId="4">'Sprint Sheet Template'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="4">'Sp2'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="5">'Sprint Sheet Template'!$B$11</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus" localSheetId="3">'Sp1'!$D$14:$D$58</definedName>
+    <definedName name="TaskStatus" localSheetId="4">'Sp2'!$D$14:$D$58</definedName>
     <definedName name="TaskStatus">'Sprint Sheet Template'!$D$14:$D$58</definedName>
     <definedName name="TaskStoryID" localSheetId="3">'Sp1'!$B$14:$B$53</definedName>
+    <definedName name="TaskStoryID" localSheetId="4">'Sp2'!$B$14:$B$53</definedName>
     <definedName name="TaskStoryID">'Sprint Sheet Template'!$B$14:$B$53</definedName>
     <definedName name="TotalEffort" localSheetId="3">'Sp1'!$E$10</definedName>
-    <definedName name="TotalEffort" localSheetId="4">'Sprint Sheet Template'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="4">'Sp2'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="5">'Sprint Sheet Template'!$E$10</definedName>
     <definedName name="TotalEffort">#REF!</definedName>
     <definedName name="TrendDays" localSheetId="3">'Sp1'!$D$13</definedName>
+    <definedName name="TrendDays" localSheetId="4">'Sp2'!$D$13</definedName>
     <definedName name="TrendDays">'Sprint Sheet Template'!$D$13</definedName>
     <definedName name="TrendOffset">'PB Burndown'!$G$5</definedName>
     <definedName name="TrendSprintCount">'PB Burndown'!$G$4</definedName>
@@ -251,8 +261,32 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count only active working and implementation days. Do not include Planning Day or Sprint Review.
+E.g. a 4-week Sprint would most likely have 18 implementation days.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>Goal</t>
   </si>
@@ -524,9 +558,6 @@
     <t>You can add comments here to add key detail or explanation to the story. For larger definitions, use external tools and materials.</t>
   </si>
   <si>
-    <t>This is a third sample story</t>
-  </si>
-  <si>
     <t>This is a fourth sample story</t>
   </si>
   <si>
@@ -585,6 +616,15 @@
   <si>
     <t>Work 
 Done</t>
+  </si>
+  <si>
+    <t>Sätta upp arbetsmiljö</t>
+  </si>
+  <si>
+    <t>Arbeta med Kravspecifikation</t>
+  </si>
+  <si>
+    <t>Riskhantering, identifiera risker i projektet</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1336,11 +1376,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1385,14 +1436,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
@@ -1402,58 +1445,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1545,6 +1536,94 @@
         <color indexed="54"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1581,8 +1660,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20739240506329121"/>
-          <c:y val="1.5822809259433815E-2"/>
+          <c:x val="0.20739240506329124"/>
+          <c:y val="1.5822809259433822E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1601,7 +1680,7 @@
           <c:x val="8.8295776413084365E-2"/>
           <c:y val="0.12658247407547046"/>
           <c:w val="0.88295776413084348"/>
-          <c:h val="0.76582396815659659"/>
+          <c:h val="0.76582396815659681"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1894,11 +1973,11 @@
           </c:downBars>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="96617216"/>
-        <c:axId val="96618752"/>
+        <c:axId val="108272256"/>
+        <c:axId val="108282240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96617216"/>
+        <c:axId val="108272256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +2009,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96618752"/>
+        <c:crossAx val="108282240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +2018,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96618752"/>
+        <c:axId val="108282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +2060,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96617216"/>
+        <c:crossAx val="108272256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2029,7 +2108,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2084,9 +2163,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.0349166562225844E-2"/>
-          <c:y val="0.13753600904370891"/>
+          <c:y val="0.13753600904370888"/>
           <c:w val="0.87885098383256044"/>
-          <c:h val="0.65043070943587356"/>
+          <c:h val="0.65043070943587378"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2168,8 +2247,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="50"/>
-        <c:axId val="96658560"/>
-        <c:axId val="96660096"/>
+        <c:axId val="108313984"/>
+        <c:axId val="108332160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2300,11 +2379,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96658560"/>
-        <c:axId val="96660096"/>
+        <c:axId val="108313984"/>
+        <c:axId val="108332160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96658560"/>
+        <c:axId val="108313984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2415,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96660096"/>
+        <c:crossAx val="108332160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2345,7 +2424,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96660096"/>
+        <c:axId val="108332160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2466,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96658560"/>
+        <c:crossAx val="108313984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2409,10 +2488,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5975435518235379E-2"/>
+          <c:x val="7.5975435518235393E-2"/>
           <c:y val="0.87392672413190053"/>
           <c:w val="0.852156911893721"/>
-          <c:h val="0.10601734030452561"/>
+          <c:h val="0.1060173403045256"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2476,7 +2555,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2492,10 +2571,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17634635691657868"/>
-          <c:y val="8.8235610910252879E-2"/>
-          <c:w val="0.81942977824709617"/>
-          <c:h val="0.83088533607154791"/>
+          <c:x val="0.17634635691657871"/>
+          <c:y val="8.8235610910252907E-2"/>
+          <c:w val="0.81942977824709629"/>
+          <c:h val="0.83088533607154802"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2603,8 +2682,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="115426432"/>
-        <c:axId val="115427968"/>
+        <c:axId val="114785664"/>
+        <c:axId val="114791552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2813,25 +2892,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="115426432"/>
-        <c:axId val="115427968"/>
+        <c:axId val="114785664"/>
+        <c:axId val="114791552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115426432"/>
+        <c:axId val="114785664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="115427968"/>
+        <c:crossAx val="114791552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115427968"/>
+        <c:axId val="114791552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2864,8 +2943,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.13938753959873287"/>
-              <c:y val="0.13970638394123375"/>
+              <c:x val="0.1393875395987329"/>
+              <c:y val="0.1397063839412338"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2902,7 +2981,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115426432"/>
+        <c:crossAx val="114785664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2924,10 +3003,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4477296726504728E-3"/>
+          <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078143"/>
-          <c:h val="0.4264721193995557"/>
+          <c:w val="0.11404435058078144"/>
+          <c:h val="0.42647211939955587"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2991,7 +3070,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3007,10 +3086,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17845828933474131"/>
-          <c:y val="8.8235610910252879E-2"/>
-          <c:w val="0.81731784582893341"/>
-          <c:h val="0.83088533607154791"/>
+          <c:x val="0.17634635691657871"/>
+          <c:y val="8.8235610910252962E-2"/>
+          <c:w val="0.81942977824709651"/>
+          <c:h val="0.83088533607154824"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3035,21 +3114,21 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Sheet Template'!$F$10:$AD$10</c:f>
+              <c:f>'Sp2'!$F$10:$AD$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3118,8 +3197,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="118916224"/>
-        <c:axId val="118917760"/>
+        <c:axId val="131597440"/>
+        <c:axId val="131598976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3142,24 +3221,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Sheet Template'!$F$11:$AD$11</c:f>
+              <c:f>'Sp2'!$F$11:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3244,33 +3323,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Sheet Template'!$F$12:$AD$12</c:f>
+              <c:f>'Sp2'!$F$12:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3328,25 +3407,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118916224"/>
-        <c:axId val="118917760"/>
+        <c:axId val="131597440"/>
+        <c:axId val="131598976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118916224"/>
+        <c:axId val="131597440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="118917760"/>
+        <c:crossAx val="131598976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118917760"/>
+        <c:axId val="131598976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3379,8 +3458,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.13938753959873287"/>
-              <c:y val="0.13970638394123375"/>
+              <c:x val="0.1393875395987329"/>
+              <c:y val="0.13970638394123391"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -3417,7 +3496,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118916224"/>
+        <c:crossAx val="131597440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3439,10 +3518,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4477296726504728E-3"/>
+          <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078143"/>
-          <c:h val="0.4264721193995557"/>
+          <c:w val="0.11404435058078147"/>
+          <c:h val="0.42647211939955609"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3506,7 +3585,522 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17845828933474134"/>
+          <c:y val="8.8235610910252907E-2"/>
+          <c:w val="0.8173178458289333"/>
+          <c:h val="0.83088533607154802"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Daily Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Sheet Template'!$F$10:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="116104576"/>
+        <c:axId val="116110464"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Sheet Template'!$F$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Sheet Template'!$F$12:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="116104576"/>
+        <c:axId val="116110464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="116104576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="116110464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116110464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Work Remaining (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1393875395987329"/>
+              <c:y val="0.1397063839412338"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116104576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4477296726504711E-3"/>
+          <c:y val="6.6176708182689656E-2"/>
+          <c:w val="0.11404435058078144"/>
+          <c:h val="0.42647211939955587"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3619,6 +4213,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4008,9 +4639,9 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4061,14 +4692,14 @@
       <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>87</v>
+      <c r="B5" s="105" t="s">
+        <v>109</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D5" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="34">
         <v>1</v>
@@ -4078,11 +4709,11 @@
       <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>88</v>
+      <c r="B6" s="105" t="s">
+        <v>110</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D6" s="34">
         <v>5</v>
@@ -4098,14 +4729,14 @@
       <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>90</v>
+      <c r="B7" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="34">
         <v>2</v>
@@ -4116,7 +4747,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>19</v>
@@ -4133,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>19</v>
@@ -4147,10 +4778,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="D10" s="34">
         <v>5</v>
@@ -4177,51 +4808,51 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G44:G52 C45:C46 A11:A52 G23:G41 B11:F44 A54:G163 B47:F52 G11:G21 A4:G10">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>$C43="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>$C43="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>$C43="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G43">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C54:C163 C4 C6:C52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C54:C163 C4:C52">
       <formula1>"Planned,Ongoing,Done,Removed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4237,7 +4868,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
@@ -4303,7 +4934,7 @@
       </c>
       <c r="E4" s="22">
         <f>IF(A4="","",SUMIF(I$16:I$30,'Release Plan'!A4,E$16:E$30))</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="49"/>
@@ -4484,7 +5115,7 @@
       </c>
       <c r="E16" s="22">
         <f>IF(A16="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A16,'Product Backlog'!D$5:D$103))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
@@ -4514,7 +5145,7 @@
       </c>
       <c r="E17" s="22">
         <f>IF(A17="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A17,'Product Backlog'!D$5:D$103))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -4903,29 +5534,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G4:H10 E31 E5:E10 A4:D10">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10 F16:F30">
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G16:H30 A16:E30">
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($F4="Planned",$F4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5009,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5024,7 +5655,7 @@
         <v>3</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5035,7 +5666,7 @@
         <v>30</v>
       </c>
       <c r="Z7" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5049,7 +5680,7 @@
         <v>25</v>
       </c>
       <c r="Z8" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -5068,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="Z9" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -5080,7 +5711,7 @@
         <v>25</v>
       </c>
       <c r="Z10" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5092,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="Z11" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5104,7 +5735,7 @@
         <v>25</v>
       </c>
       <c r="Z12" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5112,7 +5743,7 @@
         <v>52</v>
       </c>
       <c r="Z13" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6727,13 +7358,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>$D26="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>$D26="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>$D26="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6752,7 +7383,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7427,7 +8058,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -7455,7 +8086,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2">
         <v>7</v>
@@ -7485,7 +8116,7 @@
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>12</v>
@@ -8482,10 +9113,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8503,6 +9134,1761 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="34" customWidth="1"/>
+    <col min="6" max="30" width="4.42578125" style="34" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18">
+      <c r="A1" s="67">
+        <v>2</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="70">
+        <v>5</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="70">
+        <v>5</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="72">
+        <f ca="1">SUM(OFFSET(E14,1,0,TaskRows,1))</f>
+        <v>33</v>
+      </c>
+      <c r="F10" s="72">
+        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <v>33</v>
+      </c>
+      <c r="G10" s="72">
+        <f t="shared" ref="G10:AD10" ca="1" si="0">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),"",SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <v>30</v>
+      </c>
+      <c r="H10" s="72">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I10" s="72">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="O10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Q10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="S10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" hidden="1">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <v>33</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>26.4</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" hidden="1">
+      <c r="A12" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.6</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.3</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4000000000000021</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AA12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AD12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" hidden="1">
+      <c r="A13" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f ca="1">IF(DoneDays&gt;E13,E13+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>13</v>
+      </c>
+      <c r="S13" s="2">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>15</v>
+      </c>
+      <c r="U13" s="2">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2">
+        <v>17</v>
+      </c>
+      <c r="W13" s="2">
+        <v>18</v>
+      </c>
+      <c r="X13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="73">
+        <v>1</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="73">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="73">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <f>IF(OR(F$14="",$E15=""),"",E15)</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <f>IF(OR(F$14="",$E16=""),"",E16)</f>
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <f>IF(OR(F$14="",$E17=""),"",E17)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="34" t="str">
+        <f t="shared" ref="AC17:AD34" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <v/>
+      </c>
+      <c r="AD17" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="str">
+        <f>IF(A18&lt;&gt;"","Planned","")</f>
+        <v>Planned</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <f>IF(OR(F$14="",$E18=""),"",E18)</f>
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="32"/>
+      <c r="C19"/>
+      <c r="AC19" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD19" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="32"/>
+      <c r="C20"/>
+      <c r="AC20" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD20" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="32"/>
+      <c r="C21"/>
+      <c r="AC21" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD21" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="32"/>
+      <c r="C22"/>
+      <c r="AC22" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD22" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="C23"/>
+      <c r="AC23" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD23" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="32"/>
+      <c r="C24"/>
+      <c r="AC24" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD24" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="32"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="32"/>
+      <c r="C26"/>
+      <c r="AC26" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD26" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="32"/>
+      <c r="C27"/>
+      <c r="AC27" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD27" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="32"/>
+      <c r="C28"/>
+      <c r="AC28" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD28" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="32"/>
+      <c r="C29"/>
+      <c r="AC29" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD29" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="32"/>
+      <c r="C30"/>
+      <c r="AC30" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD30" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="32"/>
+      <c r="C31"/>
+      <c r="AC31" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD31" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="32"/>
+      <c r="C32"/>
+      <c r="AC32" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD32" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="32"/>
+      <c r="C33"/>
+      <c r="AC33" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD33" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="32"/>
+      <c r="C34"/>
+      <c r="AC34" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD34" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="32"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="32"/>
+      <c r="C36"/>
+      <c r="AC36" s="34" t="str">
+        <f t="shared" ref="AC36:AD51" si="5">IF(OR(AC$14="",$E36=""),"",AB36)</f>
+        <v/>
+      </c>
+      <c r="AD36" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="32"/>
+      <c r="C37"/>
+      <c r="AC37" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD37" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="32"/>
+      <c r="C38"/>
+      <c r="AC38" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD38" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="32"/>
+      <c r="C39"/>
+      <c r="AC39" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD39" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="32"/>
+      <c r="C40"/>
+      <c r="AC40" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD40" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="32"/>
+      <c r="C41"/>
+      <c r="D41" s="35" t="str">
+        <f t="shared" ref="D41:D64" si="6">IF(A41&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F41" s="34" t="str">
+        <f t="shared" ref="F41:U63" si="7">IF(OR(F$14="",$E41=""),"",E41)</f>
+        <v/>
+      </c>
+      <c r="AC41" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD41" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="C42"/>
+      <c r="D42" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F42" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC42" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD42" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="C43"/>
+      <c r="D43" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F43" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC43" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD43" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="C44"/>
+      <c r="D44" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F44" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC44" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD44" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="C45"/>
+      <c r="D45" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F45" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC45" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD45" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="C46"/>
+      <c r="D46" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F46" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC46" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD46" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="C47"/>
+      <c r="D47" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F47" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC47" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD47" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="C48"/>
+      <c r="D48" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F48" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC48" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD48" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:30">
+      <c r="C49"/>
+      <c r="D49" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F49" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC49" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD49" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:30">
+      <c r="C50"/>
+      <c r="D50" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F50" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC50" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD50" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:30">
+      <c r="C51"/>
+      <c r="D51" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F51" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC51" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD51" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:30">
+      <c r="C52"/>
+      <c r="D52" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F52" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC52" s="34" t="str">
+        <f t="shared" ref="AC52:AD70" si="8">IF(OR(AC$14="",$E52=""),"",AB52)</f>
+        <v/>
+      </c>
+      <c r="AD52" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:30">
+      <c r="C53"/>
+      <c r="D53" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F53" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC53" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD53" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:30">
+      <c r="C54"/>
+      <c r="D54" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F54" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC54" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD54" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:30">
+      <c r="C55"/>
+      <c r="D55" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F55" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC55" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD55" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:30">
+      <c r="C56"/>
+      <c r="D56" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F56" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC56" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD56" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:30">
+      <c r="C57"/>
+      <c r="D57" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F57" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC57" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD57" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:30">
+      <c r="C58"/>
+      <c r="D58" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F58" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC58" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD58" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:30">
+      <c r="C59"/>
+      <c r="D59" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC59" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD59" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:30">
+      <c r="C60"/>
+      <c r="D60" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC60" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD60" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:30">
+      <c r="C61"/>
+      <c r="D61" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F61" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC61" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD61" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:30">
+      <c r="C62"/>
+      <c r="D62" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V62" s="34" t="str">
+        <f t="shared" ref="V62:AB63" si="9">IF(OR(V$14="",$E62=""),"",U62)</f>
+        <v/>
+      </c>
+      <c r="W62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC62" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD62" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:30">
+      <c r="C63"/>
+      <c r="D63" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC63" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD63" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:30">
+      <c r="C64"/>
+      <c r="D64" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:AD58">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>$D15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$D15="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D64">
+      <formula1>"Planned,Ongoing,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD64"/>
@@ -10158,18 +12544,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A19:AD58 J15:AD18">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:I18">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10186,7 +12572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
@@ -10206,13 +12592,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="100">
         <v>1</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="86" t="s">
         <v>87</v>
@@ -10222,7 +12608,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>80</v>
@@ -10261,30 +12647,30 @@
     </row>
     <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="A6" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="101">
         <v>5</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="100">
         <v>1</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>87</v>
@@ -10294,7 +12680,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="81" t="s">
         <v>81</v>
@@ -10333,30 +12719,30 @@
     </row>
     <row r="14" spans="1:6" ht="26.25" thickBot="1">
       <c r="A14" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="101">
         <v>7</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="97"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="17" spans="1:6">
       <c r="A17" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="100">
         <v>2</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="86" t="s">
         <v>88</v>
@@ -10366,7 +12752,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="81" t="s">
         <v>83</v>
@@ -10405,30 +12791,30 @@
     </row>
     <row r="22" spans="1:6" ht="26.25" thickBot="1">
       <c r="A22" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="101">
         <v>12</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="95"/>
       <c r="E22" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="97"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="25" spans="1:6">
       <c r="A25" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="100">
         <v>2</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="86" t="s">
         <v>88</v>
@@ -10438,7 +12824,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="81" t="s">
         <v>84</v>
@@ -10477,17 +12863,17 @@
     </row>
     <row r="30" spans="1:6" ht="26.25" thickBot="1">
       <c r="A30" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="101">
         <v>9</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="95"/>
       <c r="E30" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="97"/>
     </row>

--- a/ph_product_sprint_backlog_0.03.xlsx
+++ b/ph_product_sprint_backlog_0.03.xlsx
@@ -621,10 +621,10 @@
     <t>Sätta upp arbetsmiljö</t>
   </si>
   <si>
-    <t>Arbeta med Kravspecifikation</t>
+    <t>Riskhantering, identifiera risker i projektet och Kravspecifikation</t>
   </si>
   <si>
-    <t>Riskhantering, identifiera risker i projektet</t>
+    <t>Färdigställa vision</t>
   </si>
 </sst>
 </file>
@@ -1367,6 +1367,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1376,36 +1379,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1660,8 +1638,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20739240506329124"/>
-          <c:y val="1.5822809259433822E-2"/>
+          <c:x val="0.20739240506329126"/>
+          <c:y val="1.5822809259433829E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1680,7 +1658,7 @@
           <c:x val="8.8295776413084365E-2"/>
           <c:y val="0.12658247407547046"/>
           <c:w val="0.88295776413084348"/>
-          <c:h val="0.76582396815659681"/>
+          <c:h val="0.76582396815659692"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1973,11 +1951,11 @@
           </c:downBars>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="108272256"/>
-        <c:axId val="108282240"/>
+        <c:axId val="111823872"/>
+        <c:axId val="111833856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108272256"/>
+        <c:axId val="111823872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +1987,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108282240"/>
+        <c:crossAx val="111833856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2018,7 +1996,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108282240"/>
+        <c:axId val="111833856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2038,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108272256"/>
+        <c:crossAx val="111823872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,7 +2086,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2165,7 +2143,7 @@
           <c:x val="9.0349166562225844E-2"/>
           <c:y val="0.13753600904370888"/>
           <c:w val="0.87885098383256044"/>
-          <c:h val="0.65043070943587378"/>
+          <c:h val="0.65043070943587389"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2247,8 +2225,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="50"/>
-        <c:axId val="108313984"/>
-        <c:axId val="108332160"/>
+        <c:axId val="113119232"/>
+        <c:axId val="113120768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2379,11 +2357,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108313984"/>
-        <c:axId val="108332160"/>
+        <c:axId val="113119232"/>
+        <c:axId val="113120768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108313984"/>
+        <c:axId val="113119232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2393,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108332160"/>
+        <c:crossAx val="113120768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2424,7 +2402,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108332160"/>
+        <c:axId val="113120768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2444,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108313984"/>
+        <c:crossAx val="113119232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2491,7 +2469,7 @@
           <c:x val="7.5975435518235393E-2"/>
           <c:y val="0.87392672413190053"/>
           <c:w val="0.852156911893721"/>
-          <c:h val="0.1060173403045256"/>
+          <c:h val="0.10601734030452559"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2555,7 +2533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2572,9 +2550,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17634635691657871"/>
-          <c:y val="8.8235610910252907E-2"/>
-          <c:w val="0.81942977824709629"/>
-          <c:h val="0.83088533607154802"/>
+          <c:y val="8.8235610910252935E-2"/>
+          <c:w val="0.8194297782470964"/>
+          <c:h val="0.83088533607154813"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2682,8 +2660,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114785664"/>
-        <c:axId val="114791552"/>
+        <c:axId val="114024448"/>
+        <c:axId val="114025984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2892,25 +2870,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114785664"/>
-        <c:axId val="114791552"/>
+        <c:axId val="114024448"/>
+        <c:axId val="114025984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114785664"/>
+        <c:axId val="114024448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="114791552"/>
+        <c:crossAx val="114025984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114791552"/>
+        <c:axId val="114025984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2944,7 +2922,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.1393875395987329"/>
-              <c:y val="0.1397063839412338"/>
+              <c:y val="0.13970638394123386"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2981,7 +2959,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114785664"/>
+        <c:crossAx val="114024448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3005,8 +2983,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078144"/>
-          <c:h val="0.42647211939955587"/>
+          <c:w val="0.11404435058078145"/>
+          <c:h val="0.42647211939955598"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3070,7 +3048,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3087,9 +3065,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17634635691657871"/>
-          <c:y val="8.8235610910252962E-2"/>
-          <c:w val="0.81942977824709651"/>
-          <c:h val="0.83088533607154824"/>
+          <c:y val="8.8235610910252976E-2"/>
+          <c:w val="0.81942977824709662"/>
+          <c:h val="0.83088533607154835"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3197,8 +3175,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="131597440"/>
-        <c:axId val="131598976"/>
+        <c:axId val="117350400"/>
+        <c:axId val="117351936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3407,25 +3385,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="131597440"/>
-        <c:axId val="131598976"/>
+        <c:axId val="117350400"/>
+        <c:axId val="117351936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131597440"/>
+        <c:axId val="117350400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="131598976"/>
+        <c:crossAx val="117351936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131598976"/>
+        <c:axId val="117351936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3459,7 +3437,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.1393875395987329"/>
-              <c:y val="0.13970638394123391"/>
+              <c:y val="0.13970638394123394"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -3496,7 +3474,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131597440"/>
+        <c:crossAx val="117350400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3520,8 +3498,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078147"/>
-          <c:h val="0.42647211939955609"/>
+          <c:w val="0.11404435058078148"/>
+          <c:h val="0.42647211939955626"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3585,7 +3563,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3601,10 +3579,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17845828933474134"/>
-          <c:y val="8.8235610910252907E-2"/>
-          <c:w val="0.8173178458289333"/>
-          <c:h val="0.83088533607154802"/>
+          <c:x val="0.17845828933474137"/>
+          <c:y val="8.8235610910252935E-2"/>
+          <c:w val="0.81731784582893319"/>
+          <c:h val="0.83088533607154813"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3712,8 +3690,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="116104576"/>
-        <c:axId val="116110464"/>
+        <c:axId val="116748288"/>
+        <c:axId val="116749824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3922,25 +3900,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116104576"/>
-        <c:axId val="116110464"/>
+        <c:axId val="116748288"/>
+        <c:axId val="116749824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116104576"/>
+        <c:axId val="116748288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="116110464"/>
+        <c:crossAx val="116749824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116110464"/>
+        <c:axId val="116749824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3974,7 +3952,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.1393875395987329"/>
-              <c:y val="0.1397063839412338"/>
+              <c:y val="0.13970638394123386"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -4011,7 +3989,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116104576"/>
+        <c:crossAx val="116748288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4035,8 +4013,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078144"/>
-          <c:h val="0.42647211939955587"/>
+          <c:w val="0.11404435058078145"/>
+          <c:h val="0.42647211939955598"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -4100,7 +4078,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4641,7 +4619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4692,7 +4670,7 @@
       <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="102" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -4709,14 +4687,14 @@
       <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="102" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="34">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" s="34">
         <v>1</v>
@@ -4729,14 +4707,14 @@
       <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="102" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7" s="34">
         <v>2</v>
@@ -4808,46 +4786,46 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G44:G52 C45:C46 A11:A52 G23:G41 B11:F44 A54:G163 B47:F52 G11:G21 A4:G10">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>$C43="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
       <formula>$C43="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
       <formula>$C43="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G43">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4934,7 +4912,7 @@
       </c>
       <c r="E4" s="22">
         <f>IF(A4="","",SUMIF(I$16:I$30,'Release Plan'!A4,E$16:E$30))</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="49"/>
@@ -5115,7 +5093,7 @@
       </c>
       <c r="E16" s="22">
         <f>IF(A16="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A16,'Product Backlog'!D$5:D$103))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
@@ -5145,7 +5123,7 @@
       </c>
       <c r="E17" s="22">
         <f>IF(A17="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A17,'Product Backlog'!D$5:D$103))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -5534,29 +5512,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G4:H10 E31 E5:E10 A4:D10">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10 F16:F30">
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G16:H30 A16:E30">
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($F4="Planned",$F4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5670,11 +5648,11 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="102">
+      <c r="A8" s="103">
         <f>D$4</f>
         <v>3</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="D8" s="58">
         <f ca="1">IF(D28="","",AVERAGE(OFFSET(D27,TrendOffset,0,SprintsInTrend,1)))</f>
         <v>25</v>
@@ -5786,11 +5764,11 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="102">
+      <c r="A18" s="103">
         <f>D$4</f>
         <v>3</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="103"/>
       <c r="D18" s="59">
         <f ca="1">IF(D8="","",IF(LastRealized="",ROUNDUP(LastPlanned/D8,0)+SprintCount-1,ROUNDUP((LastPlanned-LastRealized)/D8+SprintCount,0)))</f>
         <v>6</v>
@@ -5865,22 +5843,22 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1">
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104" t="s">
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1" ht="26.25" thickBot="1">
       <c r="A27" s="60" t="s">
@@ -5901,10 +5879,10 @@
       <c r="F27" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="103"/>
+      <c r="H27" s="104"/>
       <c r="I27" s="63" t="s">
         <v>36</v>
       </c>
@@ -7358,13 +7336,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>$D26="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>$D26="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
       <formula>$D26="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9113,10 +9091,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10397,7 +10375,7 @@
         <v/>
       </c>
       <c r="AC52" s="34" t="str">
-        <f t="shared" ref="AC52:AD70" si="8">IF(OR(AC$14="",$E52=""),"",AB52)</f>
+        <f t="shared" ref="AC52:AD63" si="8">IF(OR(AC$14="",$E52=""),"",AB52)</f>
         <v/>
       </c>
       <c r="AD52" s="34" t="str">
@@ -10868,10 +10846,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12544,18 +12522,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A19:AD58 J15:AD18">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:I18">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ph_product_sprint_backlog_0.03.xlsx
+++ b/ph_product_sprint_backlog_0.03.xlsx
@@ -10,10 +10,11 @@
     <sheet name="Product Backlog" sheetId="8" r:id="rId1"/>
     <sheet name="Release Plan" sheetId="7" r:id="rId2"/>
     <sheet name="PB Burndown" sheetId="20" r:id="rId3"/>
-    <sheet name="Sp1" sheetId="19" r:id="rId4"/>
+    <sheet name="Sp1 " sheetId="24" r:id="rId4"/>
     <sheet name="Sp2" sheetId="22" r:id="rId5"/>
-    <sheet name="Sprint Sheet Template" sheetId="16" r:id="rId6"/>
-    <sheet name="Task Slips" sheetId="21" r:id="rId7"/>
+    <sheet name="Sp3" sheetId="19" r:id="rId6"/>
+    <sheet name="Sprint Sheet Template" sheetId="16" r:id="rId7"/>
+    <sheet name="Task Slips" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AverageSpeedLastEight">OFFSET('PB Burndown'!$P$27,1,0,'PB Burndown'!$G$3,1)</definedName>
@@ -21,13 +22,17 @@
     <definedName name="AverageSpeedWorstThree">OFFSET('PB Burndown'!$Q$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="ColBottomCurrentScope">OFFSET('PB Burndown'!$I$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="ColTopRemainingWork">OFFSET('PB Burndown'!$F$27,1,0,'PB Burndown'!$G$3,1)</definedName>
-    <definedName name="DoneDays" localSheetId="3">'Sp1'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="3">'Sp1 '!$D$11</definedName>
     <definedName name="DoneDays" localSheetId="4">'Sp2'!$D$11</definedName>
-    <definedName name="DoneDays" localSheetId="5">'Sprint Sheet Template'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="5">'Sp3'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="6">'Sprint Sheet Template'!$D$11</definedName>
     <definedName name="DoneDays">#REF!</definedName>
-    <definedName name="ImplementationDays" localSheetId="3">'Sp1'!$B$9</definedName>
+    <definedName name="dsad">#REF!</definedName>
+    <definedName name="dsadsa">#REF!</definedName>
+    <definedName name="ImplementationDays" localSheetId="3">'Sp1 '!$B$9</definedName>
     <definedName name="ImplementationDays" localSheetId="4">'Sp2'!$B$9</definedName>
-    <definedName name="ImplementationDays" localSheetId="5">'Sprint Sheet Template'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="5">'Sp3'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="6">'Sprint Sheet Template'!$B$9</definedName>
     <definedName name="ImplementationDays">#REF!</definedName>
     <definedName name="LastEight">IF('PB Burndown'!$G$4&gt;8,OFFSET('PB Burndown'!$D$27,'PB Burndown'!$G$4-7,0,8,1),OFFSET('PB Burndown'!$D$27,1,0,'PB Burndown'!$G$4-1,1))</definedName>
     <definedName name="LastPlanned">IF(OFFSET('PB Burndown'!$B$27,1,0,1,1)="",1,OFFSET('PB Burndown'!$B$27,'PB Burndown'!$G$3,0,1,1))</definedName>
@@ -36,36 +41,43 @@
     <definedName name="PBTrend">OFFSET('PB Burndown'!$M$27,1,0,'PB Burndown'!$G$9,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET('PB Burndown'!$C$27,1,0,'PB Burndown'!$G$3,1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A:$G</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Task Slips'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Task Slips'!#REF!</definedName>
     <definedName name="ProductBacklog">'Product Backlog'!$A$4:$G$163</definedName>
     <definedName name="RealizedSpeed">OFFSET('PB Burndown'!$D$27,1,0,'PB Burndown'!$G$3,1)</definedName>
-    <definedName name="RealValues" localSheetId="3">OFFSET('Sp1'!$F$10,0,0,1,'Sp1'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="3">OFFSET('Sp1 '!$F$10,0,0,1,'Sp1 '!DoneDays)</definedName>
     <definedName name="RealValues" localSheetId="4">OFFSET('Sp2'!$F$10,0,0,1,'Sp2'!DoneDays)</definedName>
-    <definedName name="RealValues" localSheetId="5">OFFSET('Sprint Sheet Template'!$F$10,0,0,1,'Sprint Sheet Template'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="5">OFFSET('Sp3'!$F$10,0,0,1,'Sp3'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="6">OFFSET('Sprint Sheet Template'!$F$10,0,0,1,'Sprint Sheet Template'!DoneDays)</definedName>
     <definedName name="Sprint">'Product Backlog'!$E$5:$E$163</definedName>
     <definedName name="SprintCount">'PB Burndown'!$G$3</definedName>
     <definedName name="SprintsInTrend">'PB Burndown'!$G$6</definedName>
-    <definedName name="SprintTasks" localSheetId="3">'Sp1'!$A$14:$AD$63</definedName>
+    <definedName name="SprintTasks" localSheetId="3">'Sp1 '!$A$14:$AD$60</definedName>
     <definedName name="SprintTasks" localSheetId="4">'Sp2'!$A$14:$AD$63</definedName>
+    <definedName name="SprintTasks" localSheetId="5">'Sp3'!$A$14:$AD$63</definedName>
     <definedName name="SprintTasks">'Sprint Sheet Template'!$A$14:$AD$63</definedName>
     <definedName name="Status">'Product Backlog'!$C$5:$C$163</definedName>
     <definedName name="StoryName">'Product Backlog'!$B$5:$B$163</definedName>
-    <definedName name="TaskRows" localSheetId="3">'Sp1'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="3">'Sp1 '!$B$11</definedName>
     <definedName name="TaskRows" localSheetId="4">'Sp2'!$B$11</definedName>
-    <definedName name="TaskRows" localSheetId="5">'Sprint Sheet Template'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="5">'Sp3'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="6">'Sprint Sheet Template'!$B$11</definedName>
     <definedName name="TaskRows">#REF!</definedName>
-    <definedName name="TaskStatus" localSheetId="3">'Sp1'!$D$14:$D$58</definedName>
+    <definedName name="TaskStatus" localSheetId="3">'Sp1 '!$D$14:$D$55</definedName>
     <definedName name="TaskStatus" localSheetId="4">'Sp2'!$D$14:$D$58</definedName>
+    <definedName name="TaskStatus" localSheetId="5">'Sp3'!$D$14:$D$58</definedName>
     <definedName name="TaskStatus">'Sprint Sheet Template'!$D$14:$D$58</definedName>
-    <definedName name="TaskStoryID" localSheetId="3">'Sp1'!$B$14:$B$53</definedName>
+    <definedName name="TaskStoryID" localSheetId="3">'Sp1 '!$B$14:$B$50</definedName>
     <definedName name="TaskStoryID" localSheetId="4">'Sp2'!$B$14:$B$53</definedName>
+    <definedName name="TaskStoryID" localSheetId="5">'Sp3'!$B$14:$B$53</definedName>
     <definedName name="TaskStoryID">'Sprint Sheet Template'!$B$14:$B$53</definedName>
-    <definedName name="TotalEffort" localSheetId="3">'Sp1'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="3">'Sp1 '!$E$10</definedName>
     <definedName name="TotalEffort" localSheetId="4">'Sp2'!$E$10</definedName>
-    <definedName name="TotalEffort" localSheetId="5">'Sprint Sheet Template'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="5">'Sp3'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="6">'Sprint Sheet Template'!$E$10</definedName>
     <definedName name="TotalEffort">#REF!</definedName>
-    <definedName name="TrendDays" localSheetId="3">'Sp1'!$D$13</definedName>
+    <definedName name="TrendDays" localSheetId="3">'Sp1 '!$D$13</definedName>
     <definedName name="TrendDays" localSheetId="4">'Sp2'!$D$13</definedName>
+    <definedName name="TrendDays" localSheetId="5">'Sp3'!$D$13</definedName>
     <definedName name="TrendDays">'Sprint Sheet Template'!$D$13</definedName>
     <definedName name="TrendOffset">'PB Burndown'!$G$5</definedName>
     <definedName name="TrendSprintCount">'PB Burndown'!$G$4</definedName>
@@ -285,8 +297,32 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count only active working and implementation days. Do not include Planning Day or Sprint Review.
+E.g. a 4-week Sprint would most likely have 18 implementation days.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
   <si>
     <t>Goal</t>
   </si>
@@ -558,9 +594,6 @@
     <t>You can add comments here to add key detail or explanation to the story. For larger definitions, use external tools and materials.</t>
   </si>
   <si>
-    <t>This is a fourth sample story</t>
-  </si>
-  <si>
     <t>This is an unallocated sample story</t>
   </si>
   <si>
@@ -625,6 +658,18 @@
   </si>
   <si>
     <t>Färdigställa vision</t>
+  </si>
+  <si>
+    <t>Påbörjat Vision fokus problem/backgrund Och teknik</t>
+  </si>
+  <si>
+    <t>David Grenmyr</t>
+  </si>
+  <si>
+    <t>Eftersökt vilka tekniker som passar</t>
+  </si>
+  <si>
+    <t>Projektstart med Vision och annan dokumentering</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1379,11 +1424,131 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1514,94 +1679,6 @@
         <color indexed="54"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1638,8 +1715,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20739240506329126"/>
-          <c:y val="1.5822809259433829E-2"/>
+          <c:x val="0.20739240506329129"/>
+          <c:y val="1.5822809259433832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1658,7 +1735,7 @@
           <c:x val="8.8295776413084365E-2"/>
           <c:y val="0.12658247407547046"/>
           <c:w val="0.88295776413084348"/>
-          <c:h val="0.76582396815659692"/>
+          <c:h val="0.76582396815659703"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1951,11 +2028,11 @@
           </c:downBars>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="111823872"/>
-        <c:axId val="111833856"/>
+        <c:axId val="111492096"/>
+        <c:axId val="111502080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111823872"/>
+        <c:axId val="111492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2064,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111833856"/>
+        <c:crossAx val="111502080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +2073,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111833856"/>
+        <c:axId val="111502080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2115,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111823872"/>
+        <c:crossAx val="111492096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2086,7 +2163,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2143,7 +2220,7 @@
           <c:x val="9.0349166562225844E-2"/>
           <c:y val="0.13753600904370888"/>
           <c:w val="0.87885098383256044"/>
-          <c:h val="0.65043070943587389"/>
+          <c:h val="0.650430709435874"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2225,8 +2302,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="50"/>
-        <c:axId val="113119232"/>
-        <c:axId val="113120768"/>
+        <c:axId val="111869952"/>
+        <c:axId val="111871488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2357,11 +2434,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113119232"/>
-        <c:axId val="113120768"/>
+        <c:axId val="111869952"/>
+        <c:axId val="111871488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113119232"/>
+        <c:axId val="111869952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2470,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113120768"/>
+        <c:crossAx val="111871488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +2479,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113120768"/>
+        <c:axId val="111871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2521,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113119232"/>
+        <c:crossAx val="111869952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2546,7 @@
           <c:x val="7.5975435518235393E-2"/>
           <c:y val="0.87392672413190053"/>
           <c:w val="0.852156911893721"/>
-          <c:h val="0.10601734030452559"/>
+          <c:h val="0.10601734030452557"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2533,7 +2610,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2550,9 +2627,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17634635691657871"/>
-          <c:y val="8.8235610910252935E-2"/>
-          <c:w val="0.8194297782470964"/>
-          <c:h val="0.83088533607154813"/>
+          <c:y val="8.8235610910253004E-2"/>
+          <c:w val="0.81942977824709662"/>
+          <c:h val="0.83088533607154846"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2577,24 +2654,24 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$F$10:$AD$10</c:f>
+              <c:f>'Sp1 '!$F$10:$AD$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2660,8 +2737,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114024448"/>
-        <c:axId val="114025984"/>
+        <c:axId val="48918912"/>
+        <c:axId val="48920448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2684,24 +2761,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$F$11:$AD$11</c:f>
+              <c:f>'Sp1 '!$F$11:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.200000000000003</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6000000000000014</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2786,109 +2863,109 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sp1'!$F$12:$AD$12</c:f>
+              <c:f>'Sp1 '!$F$12:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>33.200000000000003</c:v>
+                  <c:v>1.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.9</c:v>
+                  <c:v>1.8000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.6</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.3</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>4.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.700000000000003</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4000000000000021</c:v>
+                  <c:v>5.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>6.5999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8.9999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9.7999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11.399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>12.199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>12.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>13.799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14.599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>15.399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>16.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>16.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>17.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>18.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>19.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>20.199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114024448"/>
-        <c:axId val="114025984"/>
+        <c:axId val="48918912"/>
+        <c:axId val="48920448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114024448"/>
+        <c:axId val="48918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="114025984"/>
+        <c:crossAx val="48920448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114025984"/>
+        <c:axId val="48920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2922,7 +2999,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.1393875395987329"/>
-              <c:y val="0.13970638394123386"/>
+              <c:y val="0.13970638394123397"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2959,7 +3036,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114024448"/>
+        <c:crossAx val="48918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2983,8 +3060,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078145"/>
-          <c:h val="0.42647211939955598"/>
+          <c:w val="0.1140443505807815"/>
+          <c:h val="0.42647211939955643"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3048,7 +3125,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000078" r="0.75000000000000078" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3065,9 +3142,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17634635691657871"/>
-          <c:y val="8.8235610910252976E-2"/>
+          <c:y val="8.8235610910253004E-2"/>
           <c:w val="0.81942977824709662"/>
-          <c:h val="0.83088533607154835"/>
+          <c:h val="0.83088533607154846"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3175,8 +3252,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="117350400"/>
-        <c:axId val="117351936"/>
+        <c:axId val="114532352"/>
+        <c:axId val="114533888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3385,25 +3462,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117350400"/>
-        <c:axId val="117351936"/>
+        <c:axId val="114532352"/>
+        <c:axId val="114533888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117350400"/>
+        <c:axId val="114532352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="117351936"/>
+        <c:crossAx val="114533888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117351936"/>
+        <c:axId val="114533888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3437,7 +3514,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.1393875395987329"/>
-              <c:y val="0.13970638394123394"/>
+              <c:y val="0.13970638394123397"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -3474,7 +3551,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117350400"/>
+        <c:crossAx val="114532352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3498,8 +3575,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078148"/>
-          <c:h val="0.42647211939955626"/>
+          <c:w val="0.1140443505807815"/>
+          <c:h val="0.42647211939955643"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3563,7 +3640,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000078" r="0.75000000000000078" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3579,10 +3656,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17845828933474137"/>
-          <c:y val="8.8235610910252935E-2"/>
-          <c:w val="0.81731784582893319"/>
-          <c:h val="0.83088533607154813"/>
+          <c:x val="0.17634635691657871"/>
+          <c:y val="8.8235610910252962E-2"/>
+          <c:w val="0.81942977824709651"/>
+          <c:h val="0.83088533607154824"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3607,21 +3684,21 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Sheet Template'!$F$10:$AD$10</c:f>
+              <c:f>'Sp3'!$F$10:$AD$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3690,8 +3767,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="116748288"/>
-        <c:axId val="116749824"/>
+        <c:axId val="114151424"/>
+        <c:axId val="114152960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3714,24 +3791,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Sheet Template'!$F$11:$AD$11</c:f>
+              <c:f>'Sp3'!$F$11:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3816,33 +3893,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Sheet Template'!$F$12:$AD$12</c:f>
+              <c:f>'Sp3'!$F$12:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3900,25 +3977,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116748288"/>
-        <c:axId val="116749824"/>
+        <c:axId val="114151424"/>
+        <c:axId val="114152960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116748288"/>
+        <c:axId val="114151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="116749824"/>
+        <c:crossAx val="114152960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116749824"/>
+        <c:axId val="114152960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3952,7 +4029,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.1393875395987329"/>
-              <c:y val="0.13970638394123386"/>
+              <c:y val="0.13970638394123391"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -3989,7 +4066,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116748288"/>
+        <c:crossAx val="114151424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4013,8 +4090,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4477296726504711E-3"/>
           <c:y val="6.6176708182689656E-2"/>
-          <c:w val="0.11404435058078145"/>
-          <c:h val="0.42647211939955598"/>
+          <c:w val="0.11404435058078147"/>
+          <c:h val="0.42647211939955609"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -4078,7 +4155,522 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17845828933474142"/>
+          <c:y val="8.8235610910252962E-2"/>
+          <c:w val="0.81731784582893308"/>
+          <c:h val="0.83088533607154824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Daily Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Sheet Template'!$F$10:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="114454528"/>
+        <c:axId val="114456064"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Sheet Template'!$F$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Sheet Template'!$F$12:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="114454528"/>
+        <c:axId val="114456064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="114454528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="114456064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114456064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Work Remaining (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1393875395987329"/>
+              <c:y val="0.13970638394123391"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="114454528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4477296726504711E-3"/>
+          <c:y val="6.6176708182689656E-2"/>
+          <c:w val="0.11404435058078147"/>
+          <c:h val="0.42647211939955609"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4170,7 +4762,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17410" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4228,6 +4820,43 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17410" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4619,7 +5248,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4666,18 +5295,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="34">
         <v>1</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D5" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="34">
         <v>1</v>
@@ -4688,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>19</v>
@@ -4697,18 +5326,18 @@
         <v>15</v>
       </c>
       <c r="E6" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="34">
         <v>3</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>19</v>
@@ -4725,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>19</v>
@@ -4734,7 +5363,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4742,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>19</v>
@@ -4756,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="34">
         <v>5</v>
@@ -4786,46 +5415,46 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G44:G52 C45:C46 A11:A52 G23:G41 B11:F44 A54:G163 B47:F52 G11:G21 A4:G10">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>$C43="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
       <formula>$C43="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$C43="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G43">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,7 +5541,7 @@
       </c>
       <c r="E4" s="22">
         <f>IF(A4="","",SUMIF(I$16:I$30,'Release Plan'!A4,E$16:E$30))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="49"/>
@@ -5093,7 +5722,7 @@
       </c>
       <c r="E16" s="22">
         <f>IF(A16="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A16,'Product Backlog'!D$5:D$103))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
@@ -5123,7 +5752,7 @@
       </c>
       <c r="E17" s="22">
         <f>IF(A17="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A17,'Product Backlog'!D$5:D$103))</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -5153,7 +5782,7 @@
       </c>
       <c r="E18" s="22">
         <f>IF(A18="","",SUMIF('Product Backlog'!E$5:E$103,'Release Plan'!A18,'Product Backlog'!D$5:D$103))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>IF(AND(OR(F17="Planned",F17="Ongoing"),C18&lt;&gt;""),"Planned","Unplanned")</f>
@@ -5512,29 +6141,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G4:H10 E31 E5:E10 A4:D10">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10 F16:F30">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G16:H30 A16:E30">
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>OR($F4="Planned",$F4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5618,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5633,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5644,7 +6273,7 @@
         <v>30</v>
       </c>
       <c r="Z7" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5658,7 +6287,7 @@
         <v>25</v>
       </c>
       <c r="Z8" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -5677,7 +6306,7 @@
         <v>7</v>
       </c>
       <c r="Z9" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -5689,7 +6318,7 @@
         <v>25</v>
       </c>
       <c r="Z10" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5701,7 +6330,7 @@
         <v>25</v>
       </c>
       <c r="Z11" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5713,7 +6342,7 @@
         <v>25</v>
       </c>
       <c r="Z12" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5721,7 +6350,7 @@
         <v>52</v>
       </c>
       <c r="Z13" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -7336,13 +7965,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>$D26="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>$D26="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>$D26="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7356,17 +7985,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="35" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="34" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="35" customWidth="1"/>
@@ -7490,27 +8118,27 @@
       </c>
       <c r="E10" s="72">
         <f ca="1">SUM(OFFSET(E14,1,0,TaskRows,1))</f>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F10" s="72">
         <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G10" s="72">
         <f t="shared" ref="G10:AD10" ca="1" si="0">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),"",SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H10" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I10" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J10" s="72" t="str">
+        <v>3</v>
+      </c>
+      <c r="J10" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K10" s="72" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7598,36 +8226,36 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
-        <v>4</v>
+        <f>IF(COUNTA(A15:A239)=0,1,COUNTA(A15:A239))</f>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
-        <v>26.4</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.8</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.200000000000003</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6000000000000014</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7721,103 +8349,103 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2">
         <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
-        <v>33.200000000000003</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28.9</v>
+        <v>1.8000000000000005</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.6</v>
+        <v>2.6</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.3</v>
+        <v>3.4</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.700000000000003</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4000000000000021</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="N12" s="2" t="str">
+        <v>6.5999999999999988</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O12" s="2" t="str">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="O12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P12" s="2" t="str">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Q12" s="2" t="str">
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R12" s="2" t="str">
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="R12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S12" s="2" t="str">
+        <v>10.599999999999998</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="T12" s="2" t="str">
+        <v>11.399999999999997</v>
+      </c>
+      <c r="T12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="U12" s="2" t="str">
+        <v>12.199999999999998</v>
+      </c>
+      <c r="U12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="V12" s="2" t="str">
+        <v>12.999999999999996</v>
+      </c>
+      <c r="V12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="W12" s="2" t="str">
+        <v>13.799999999999995</v>
+      </c>
+      <c r="W12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="X12" s="2" t="str">
+        <v>14.599999999999996</v>
+      </c>
+      <c r="X12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Y12" s="2" t="str">
+        <v>15.399999999999995</v>
+      </c>
+      <c r="Y12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Z12" s="2" t="str">
+        <v>16.199999999999996</v>
+      </c>
+      <c r="Z12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AA12" s="2" t="str">
+        <v>16.999999999999993</v>
+      </c>
+      <c r="AA12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AB12" s="2" t="str">
+        <v>17.799999999999997</v>
+      </c>
+      <c r="AB12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AC12" s="2" t="str">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="AC12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AD12" s="2" t="str">
+        <v>19.399999999999991</v>
+      </c>
+      <c r="AD12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>20.199999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:30" customFormat="1" hidden="1">
@@ -7829,7 +8457,7 @@
       </c>
       <c r="D13" s="2">
         <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -8026,94 +8654,82 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="107">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>85</v>
+      <c r="C15" s="106" t="s">
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="34">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
-        <f>IF(OR(F$14="",$E15=""),"",E15)</f>
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="34">
+        <v>4</v>
+      </c>
+      <c r="F16" s="34">
+        <v>1</v>
+      </c>
+      <c r="G16" s="34">
+        <v>3</v>
+      </c>
+      <c r="H16" s="34">
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2">
-        <f>IF(OR(F$14="",$E16=""),"",E16)</f>
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="34" t="str">
+        <f t="shared" ref="AC16:AD31" si="4">IF(OR(AC$14="",$E16=""),"",AB16)</f>
+        <v/>
+      </c>
+      <c r="AD16" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2">
-        <f>IF(OR(F$14="",$E17=""),"",E17)</f>
-        <v>12</v>
-      </c>
-      <c r="G17" s="2">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2">
-        <v>12</v>
-      </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
+      <c r="A17" s="32"/>
+      <c r="C17"/>
       <c r="AC17" s="34" t="str">
-        <f t="shared" ref="AC17:AD34" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD17" s="34" t="str">
@@ -8122,32 +8738,15 @@
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
+      <c r="A18" s="32"/>
       <c r="C18"/>
-      <c r="D18" t="str">
-        <f>IF(A18&lt;&gt;"","Planned","")</f>
-        <v>Planned</v>
-      </c>
-      <c r="E18" s="2">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2">
-        <f>IF(OR(F$14="",$E18=""),"",E18)</f>
-        <v>9</v>
-      </c>
-      <c r="G18" s="2">
-        <v>9</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2">
-        <v>9</v>
+      <c r="AC18" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD18" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -8162,7 +8761,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" ht="15" customHeight="1">
       <c r="A20" s="32"/>
       <c r="C20"/>
       <c r="AC20" s="34" t="str">
@@ -8189,16 +8788,8 @@
     <row r="22" spans="1:30">
       <c r="A22" s="32"/>
       <c r="C22"/>
-      <c r="AC22" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD22" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="32"/>
       <c r="C23"/>
       <c r="AC23" s="34" t="str">
@@ -8225,6 +8816,14 @@
     <row r="25" spans="1:30">
       <c r="A25" s="32"/>
       <c r="C25"/>
+      <c r="AC25" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="32"/>
@@ -8301,24 +8900,16 @@
     <row r="32" spans="1:30">
       <c r="A32" s="32"/>
       <c r="C32"/>
-      <c r="AC32" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD32" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="32"/>
       <c r="C33"/>
       <c r="AC33" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AC33:AD48" si="5">IF(OR(AC$14="",$E33=""),"",AB33)</f>
         <v/>
       </c>
       <c r="AD33" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8326,23 +8917,31 @@
       <c r="A34" s="32"/>
       <c r="C34"/>
       <c r="AC34" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD34" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="32"/>
       <c r="C35"/>
+      <c r="AC35" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD35" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="32"/>
       <c r="C36"/>
       <c r="AC36" s="34" t="str">
-        <f t="shared" ref="AC36:AD40" si="5">IF(OR(AC$14="",$E36=""),"",AB36)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD36" s="34" t="str">
@@ -8365,6 +8964,14 @@
     <row r="38" spans="1:30">
       <c r="A38" s="32"/>
       <c r="C38"/>
+      <c r="D38" s="35" t="str">
+        <f t="shared" ref="D38:D61" si="6">IF(A38&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F38" s="34" t="str">
+        <f t="shared" ref="F38:U60" si="7">IF(OR(F$14="",$E38=""),"",E38)</f>
+        <v/>
+      </c>
       <c r="AC38" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8375,8 +8982,15 @@
       </c>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="32"/>
       <c r="C39"/>
+      <c r="D39" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F39" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="AC39" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8387,8 +9001,15 @@
       </c>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="32"/>
       <c r="C40"/>
+      <c r="D40" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F40" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="AC40" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8399,22 +9020,21 @@
       </c>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="32"/>
       <c r="C41"/>
       <c r="D41" s="35" t="str">
-        <f t="shared" ref="D41:D64" si="6">IF(A41&lt;&gt;"","Planned","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F41" s="34" t="str">
-        <f t="shared" ref="F41:F63" si="7">IF(OR(F$14="",$E41=""),"",E41)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC41" s="34" t="str">
-        <f t="shared" ref="AC41:AD59" si="8">IF(OR(AC$14="",$E41=""),"",AB41)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD41" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8429,11 +9049,11 @@
         <v/>
       </c>
       <c r="AC42" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD42" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8448,11 +9068,11 @@
         <v/>
       </c>
       <c r="AC43" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD43" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8467,11 +9087,11 @@
         <v/>
       </c>
       <c r="AC44" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD44" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8486,11 +9106,11 @@
         <v/>
       </c>
       <c r="AC45" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD45" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8505,11 +9125,11 @@
         <v/>
       </c>
       <c r="AC46" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD46" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8524,11 +9144,11 @@
         <v/>
       </c>
       <c r="AC47" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD47" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8543,11 +9163,11 @@
         <v/>
       </c>
       <c r="AC48" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD48" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8562,7 +9182,7 @@
         <v/>
       </c>
       <c r="AC49" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AC49:AD60" si="8">IF(OR(AC$14="",$E49=""),"",AB49)</f>
         <v/>
       </c>
       <c r="AD49" s="34" t="str">
@@ -8751,6 +9371,94 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="G59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V59" s="34" t="str">
+        <f t="shared" ref="V59:AB60" si="9">IF(OR(V$14="",$E59=""),"",U59)</f>
+        <v/>
+      </c>
+      <c r="W59" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X59" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y59" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z59" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA59" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB59" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AC59" s="34" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8770,12 +9478,100 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="G60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AC60" s="34" t="str">
-        <f t="shared" ref="AC60:AD63" si="9">IF(OR(AC$14="",$E60=""),"",AB60)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD60" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8785,239 +9581,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F61" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AC61" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD61" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="3:30">
       <c r="C62"/>
-      <c r="D62" s="35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F62" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G62" s="34" t="str">
-        <f t="shared" ref="G62:AB62" si="10">IF(OR(G$14="",$E62=""),"",F62)</f>
-        <v/>
-      </c>
-      <c r="H62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="O62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="R62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="W62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="X62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB62" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC62" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD62" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
     </row>
     <row r="63" spans="3:30">
       <c r="C63"/>
-      <c r="D63" s="35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F63" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G63" s="34" t="str">
-        <f t="shared" ref="G63:AB63" si="11">IF(OR(G$14="",$E63=""),"",F63)</f>
-        <v/>
-      </c>
-      <c r="H63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="W63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="X63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Y63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Z63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AA63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB63" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AC63" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD63" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
     </row>
     <row r="64" spans="3:30">
       <c r="C64"/>
-      <c r="D64" s="35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65"/>
@@ -9079,27 +9651,17 @@
     <row r="84" spans="3:3">
       <c r="C84"/>
     </row>
-    <row r="85" spans="3:3">
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A15:AD55">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D61">
       <formula1>"Planned,Ongoing,Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10846,10 +11408,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10867,6 +11429,1763 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AD87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="34" customWidth="1"/>
+    <col min="6" max="30" width="4.42578125" style="34" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18">
+      <c r="A1" s="67">
+        <v>1</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="70">
+        <v>5</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="70">
+        <v>5</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="72">
+        <f ca="1">SUM(OFFSET(E14,1,0,TaskRows,1))</f>
+        <v>33</v>
+      </c>
+      <c r="F10" s="72">
+        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <v>33</v>
+      </c>
+      <c r="G10" s="72">
+        <f t="shared" ref="G10:AD10" ca="1" si="0">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),"",SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <v>30</v>
+      </c>
+      <c r="H10" s="72">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I10" s="72">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="O10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Q10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="S10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD10" s="72" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" hidden="1">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <v>33</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>26.4</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" hidden="1">
+      <c r="A12" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.6</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.3</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4000000000000021</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AA12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AD12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" hidden="1">
+      <c r="A13" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f ca="1">IF(DoneDays&gt;E13,E13+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>13</v>
+      </c>
+      <c r="S13" s="2">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>15</v>
+      </c>
+      <c r="U13" s="2">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2">
+        <v>17</v>
+      </c>
+      <c r="W13" s="2">
+        <v>18</v>
+      </c>
+      <c r="X13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="73">
+        <v>1</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="73">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="73">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD14" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <f>IF(OR(F$14="",$E15=""),"",E15)</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <f>IF(OR(F$14="",$E16=""),"",E16)</f>
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <f>IF(OR(F$14="",$E17=""),"",E17)</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="34" t="str">
+        <f t="shared" ref="AC17:AD34" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <v/>
+      </c>
+      <c r="AD17" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="str">
+        <f>IF(A18&lt;&gt;"","Planned","")</f>
+        <v>Planned</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <f>IF(OR(F$14="",$E18=""),"",E18)</f>
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="32"/>
+      <c r="C19"/>
+      <c r="AC19" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD19" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="32"/>
+      <c r="C20"/>
+      <c r="AC20" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD20" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="32"/>
+      <c r="C21"/>
+      <c r="AC21" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD21" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="32"/>
+      <c r="C22"/>
+      <c r="AC22" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD22" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="C23"/>
+      <c r="AC23" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD23" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="32"/>
+      <c r="C24"/>
+      <c r="AC24" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD24" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="32"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="32"/>
+      <c r="C26"/>
+      <c r="AC26" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD26" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="32"/>
+      <c r="C27"/>
+      <c r="AC27" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD27" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="32"/>
+      <c r="C28"/>
+      <c r="AC28" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD28" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="32"/>
+      <c r="C29"/>
+      <c r="AC29" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD29" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="32"/>
+      <c r="C30"/>
+      <c r="AC30" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD30" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="32"/>
+      <c r="C31"/>
+      <c r="AC31" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD31" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="32"/>
+      <c r="C32"/>
+      <c r="AC32" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD32" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="32"/>
+      <c r="C33"/>
+      <c r="AC33" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD33" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="32"/>
+      <c r="C34"/>
+      <c r="AC34" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD34" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="32"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="32"/>
+      <c r="C36"/>
+      <c r="AC36" s="34" t="str">
+        <f t="shared" ref="AC36:AD40" si="5">IF(OR(AC$14="",$E36=""),"",AB36)</f>
+        <v/>
+      </c>
+      <c r="AD36" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="32"/>
+      <c r="C37"/>
+      <c r="AC37" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD37" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="32"/>
+      <c r="C38"/>
+      <c r="AC38" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD38" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="32"/>
+      <c r="C39"/>
+      <c r="AC39" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD39" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="32"/>
+      <c r="C40"/>
+      <c r="AC40" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD40" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="32"/>
+      <c r="C41"/>
+      <c r="D41" s="35" t="str">
+        <f t="shared" ref="D41:D64" si="6">IF(A41&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F41" s="34" t="str">
+        <f t="shared" ref="F41:F63" si="7">IF(OR(F$14="",$E41=""),"",E41)</f>
+        <v/>
+      </c>
+      <c r="AC41" s="34" t="str">
+        <f t="shared" ref="AC41:AD59" si="8">IF(OR(AC$14="",$E41=""),"",AB41)</f>
+        <v/>
+      </c>
+      <c r="AD41" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="C42"/>
+      <c r="D42" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F42" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC42" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD42" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="C43"/>
+      <c r="D43" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F43" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC43" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD43" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="C44"/>
+      <c r="D44" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F44" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC44" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD44" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="C45"/>
+      <c r="D45" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F45" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC45" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD45" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="C46"/>
+      <c r="D46" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F46" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC46" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD46" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="C47"/>
+      <c r="D47" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F47" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC47" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD47" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="C48"/>
+      <c r="D48" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F48" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC48" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD48" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:30">
+      <c r="C49"/>
+      <c r="D49" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F49" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC49" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD49" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:30">
+      <c r="C50"/>
+      <c r="D50" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F50" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC50" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD50" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:30">
+      <c r="C51"/>
+      <c r="D51" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F51" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC51" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD51" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:30">
+      <c r="C52"/>
+      <c r="D52" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F52" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC52" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD52" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:30">
+      <c r="C53"/>
+      <c r="D53" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F53" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC53" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD53" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:30">
+      <c r="C54"/>
+      <c r="D54" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F54" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC54" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD54" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:30">
+      <c r="C55"/>
+      <c r="D55" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F55" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC55" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD55" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:30">
+      <c r="C56"/>
+      <c r="D56" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F56" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC56" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD56" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:30">
+      <c r="C57"/>
+      <c r="D57" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F57" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC57" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD57" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:30">
+      <c r="C58"/>
+      <c r="D58" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F58" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC58" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD58" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:30">
+      <c r="C59"/>
+      <c r="D59" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F59" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC59" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD59" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:30">
+      <c r="C60"/>
+      <c r="D60" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F60" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC60" s="34" t="str">
+        <f t="shared" ref="AC60:AD63" si="9">IF(OR(AC$14="",$E60=""),"",AB60)</f>
+        <v/>
+      </c>
+      <c r="AD60" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:30">
+      <c r="C61"/>
+      <c r="D61" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F61" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC61" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD61" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:30">
+      <c r="C62"/>
+      <c r="D62" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F62" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G62" s="34" t="str">
+        <f t="shared" ref="G62:AB62" si="10">IF(OR(G$14="",$E62=""),"",F62)</f>
+        <v/>
+      </c>
+      <c r="H62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="R62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="V62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="X62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Y62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB62" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD62" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:30">
+      <c r="C63"/>
+      <c r="D63" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F63" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G63" s="34" t="str">
+        <f t="shared" ref="G63:AB63" si="11">IF(OR(G$14="",$E63=""),"",F63)</f>
+        <v/>
+      </c>
+      <c r="H63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="W63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="X63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Y63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Z63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB63" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AC63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD63" s="34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:30">
+      <c r="C64"/>
+      <c r="D64" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A15:AD58">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+      <formula>$D15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+      <formula>$D15="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D64">
+      <formula1>"Planned,Ongoing,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD64"/>
@@ -12522,18 +14841,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A19:AD58 J15:AD18">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:I18">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12550,7 +14869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
@@ -12570,13 +14889,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="100">
         <v>1</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="86" t="s">
         <v>87</v>
@@ -12586,7 +14905,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>80</v>
@@ -12614,7 +14933,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="98" t="str">
-        <f>CONCATENATE("Responsible Person: ",'Sp1'!C15)</f>
+        <f>CONCATENATE("Responsible Person: ",'Sp3'!C15)</f>
         <v>Responsible Person: Danny Dev</v>
       </c>
       <c r="B5" s="80"/>
@@ -12625,30 +14944,30 @@
     </row>
     <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="A6" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="101">
         <v>5</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="100">
         <v>1</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>87</v>
@@ -12658,7 +14977,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="81" t="s">
         <v>81</v>
@@ -12686,7 +15005,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="98" t="str">
-        <f>CONCATENATE("Responsible Person: ",'Sp1'!C16)</f>
+        <f>CONCATENATE("Responsible Person: ",'Sp3'!C16)</f>
         <v>Responsible Person: Tina Tester</v>
       </c>
       <c r="B13" s="80"/>
@@ -12697,30 +15016,30 @@
     </row>
     <row r="14" spans="1:6" ht="26.25" thickBot="1">
       <c r="A14" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="101">
         <v>7</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="97"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="17" spans="1:6">
       <c r="A17" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="100">
         <v>2</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="86" t="s">
         <v>88</v>
@@ -12730,7 +15049,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="81" t="s">
         <v>83</v>
@@ -12758,7 +15077,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="98" t="str">
-        <f>CONCATENATE("Responsible Person: ",'Sp1'!C17)</f>
+        <f>CONCATENATE("Responsible Person: ",'Sp3'!C17)</f>
         <v>Responsible Person: Danny Dev</v>
       </c>
       <c r="B21" s="80"/>
@@ -12769,30 +15088,30 @@
     </row>
     <row r="22" spans="1:6" ht="26.25" thickBot="1">
       <c r="A22" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="101">
         <v>12</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="95"/>
       <c r="E22" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="97"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="25" spans="1:6">
       <c r="A25" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="100">
         <v>2</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="86" t="s">
         <v>88</v>
@@ -12802,7 +15121,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="81" t="s">
         <v>84</v>
@@ -12830,7 +15149,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="98" t="str">
-        <f>CONCATENATE("Responsible Person: ",'Sp1'!C18)</f>
+        <f>CONCATENATE("Responsible Person: ",'Sp3'!C18)</f>
         <v xml:space="preserve">Responsible Person: </v>
       </c>
       <c r="B29" s="80"/>
@@ -12841,17 +15160,17 @@
     </row>
     <row r="30" spans="1:6" ht="26.25" thickBot="1">
       <c r="A30" s="94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="101">
         <v>9</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="95"/>
       <c r="E30" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="97"/>
     </row>
